--- a/Agents KG and Fine Tuning Project Allocations.xlsx
+++ b/Agents KG and Fine Tuning Project Allocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d131965f25a4db2/Family-onedrive-vijay/Vijay/career/Engagements/Gynosis-Citius Tech/Citius-GenAI-training/module end projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{413D3D8B-C568-495B-8B04-4BBF4F71A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817AC3E2-9C48-4E88-A909-DC11D391C970}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{413D3D8B-C568-495B-8B04-4BBF4F71A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DB67B4-32CE-4E76-BF37-751ED3FFBA41}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18150" windowHeight="10710" firstSheet="3" activeTab="5" xr2:uid="{9D5BF64C-DC78-4DE3-B62C-ECEA42670798}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{9D5BF64C-DC78-4DE3-B62C-ECEA42670798}"/>
   </bookViews>
   <sheets>
     <sheet name=" Project Allocation" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -118,30 +118,6 @@
   </si>
   <si>
     <t>Healthcare professionals have to deal with many research papers, articles and other documents around diseases, drugs, side effects etc.</t>
-  </si>
-  <si>
-    <t>Implement a tool that, given a set of 5-10 such documents, will enable the professionals to ask questions on any disease, drug or treatment and get succinct and relevant answers.</t>
-  </si>
-  <si>
-    <t>Users should be able to upload their own document as well.</t>
-  </si>
-  <si>
-    <t>Evaluate the effectiveness of the response using relevant evaluation metrics.</t>
-  </si>
-  <si>
-    <t>Use synthetic data generation to create the documents.</t>
-  </si>
-  <si>
-    <t>One such document is here:</t>
-  </si>
-  <si>
-    <t>https://github.com/vijay-agrawal/citius-genai/blob/main/Disease%20treatments.pdf</t>
-  </si>
-  <si>
-    <t>Prompt used to create above doc:</t>
-  </si>
-  <si>
-    <t>create a 2000 word document on top 10 diseases, their symptoms, treatment options and common drugs used to treat them, including side effects of them</t>
   </si>
   <si>
     <t>Chronological Patient History summary with Knowledge Graph and Agentic RAG</t>
@@ -447,6 +423,18 @@
   </si>
   <si>
     <t>Compare the performance between RAG and graph rag implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a tool that, given a set of 2-3 topics in the prompt, will use agentic workflow (multi agents) and output a summary of the latest news along with citations </t>
+  </si>
+  <si>
+    <t>Example prompt:</t>
+  </si>
+  <si>
+    <t>What is the latest news on parkinson's disease and it's treatments? Any latest drugs available?</t>
+  </si>
+  <si>
+    <t>Use a multi agent workflow</t>
   </si>
 </sst>
 </file>
@@ -750,6 +738,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -791,9 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,7 +1126,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1161,13 +1149,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>35</v>
+      <c r="C2" s="32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1177,7 +1165,7 @@
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
@@ -1186,7 +1174,7 @@
       <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
@@ -1195,27 +1183,27 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>34</v>
+      <c r="C5" s="34" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -1224,18 +1212,18 @@
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>33</v>
+      <c r="C8" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
@@ -1244,7 +1232,7 @@
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
@@ -1253,7 +1241,7 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
@@ -1262,8 +1250,8 @@
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>39</v>
+      <c r="C12" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1273,7 +1261,7 @@
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
@@ -1282,17 +1270,17 @@
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>30</v>
+      <c r="C15" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1302,7 +1290,7 @@
       <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
@@ -1311,7 +1299,7 @@
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1340,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1350,27 +1338,27 @@
     </row>
     <row r="3" spans="1:1" ht="32">
       <c r="A3" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="32">
       <c r="A4" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
       <c r="A5" s="18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16">
@@ -1403,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1413,17 +1401,17 @@
     </row>
     <row r="3" spans="1:1" ht="32">
       <c r="A3" s="22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16">
       <c r="A4" s="18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="48">
       <c r="A5" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16">
@@ -1431,62 +1419,62 @@
     </row>
     <row r="7" spans="1:1" ht="16">
       <c r="A7" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="128">
       <c r="A8" s="19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16">
       <c r="A10" s="18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="29">
-      <c r="A20" s="39" t="s">
-        <v>65</v>
+      <c r="A20" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1509,42 +1497,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
       <c r="A2" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="64">
       <c r="A3" s="19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
       <c r="A5" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="80">
       <c r="A6" s="19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1554,11 +1542,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8F8D6E-EDB8-4C6B-86AD-CB3E18C1B43E}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1567,7 +1553,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1582,53 +1568,33 @@
     </row>
     <row r="4" spans="1:1" ht="32">
       <c r="A4" s="19" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
+      <c r="A5" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16">
       <c r="A6" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20"/>
     </row>
     <row r="8" spans="1:1" ht="16">
       <c r="A8" s="19" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16">
-      <c r="A11" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="32">
-      <c r="A12" s="21" t="s">
-        <v>29</v>
+      <c r="A9" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://github.com/vijay-agrawal/citius-genai/blob/main/Disease treatments.pdf" xr:uid="{5C17A77B-F427-4CCD-83E7-44F13EE86BA6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1637,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC2422D-C02C-4EC9-977B-D9023D7E1EB8}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1656,17 +1622,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Agents KG and Fine Tuning Project Allocations.xlsx
+++ b/Agents KG and Fine Tuning Project Allocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d131965f25a4db2/Family-onedrive-vijay/Vijay/career/Engagements/Gynosis-Citius Tech/Citius-GenAI-training/module end projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{413D3D8B-C568-495B-8B04-4BBF4F71A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1DB67B4-32CE-4E76-BF37-751ED3FFBA41}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{413D3D8B-C568-495B-8B04-4BBF4F71A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1C48AB-2B42-4F7A-8152-A7CAC3BC49E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{9D5BF64C-DC78-4DE3-B62C-ECEA42670798}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{9D5BF64C-DC78-4DE3-B62C-ECEA42670798}"/>
   </bookViews>
   <sheets>
     <sheet name=" Project Allocation" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Custom fine tuned model for patient intake triage</t>
   </si>
   <si>
-    <t>Face recognition and Facial expression detection using pre-trained models (GPT4-V or similar)</t>
-  </si>
-  <si>
     <t>Mayuri</t>
   </si>
   <si>
@@ -160,6 +157,274 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <r>
+      <t>Synthetic Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Create a small set of triage-oriented examples.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Model Selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>gpt2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for demonstration.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Show raw GPT-2 outputs on a sample prompt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fine-Tuning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Demonstrate how to tokenize data, configure the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API, and train.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evaluation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Evaluate with appropriate metrics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>System Prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provided a  system/role prompt for emergency triage use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chatbot to demonstrate  generated triage steps for a new scenario.</t>
+    </r>
+  </si>
+  <si>
+    <t>Patient facial expressions provide a clue on how the patient is feeling and can be used to prescribe proper medications</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>https://medium.com/@elinamaliarsky/gpt-4-video-kyc-part-i-12025cb455fd</t>
+  </si>
+  <si>
+    <t>https://medium.com/@elinamaliarsky/gpt-4-video-kyc-part-ii-a94df13458ff</t>
+  </si>
+  <si>
+    <t>Adversarial event reporting</t>
+  </si>
+  <si>
+    <t>When a patient calls in with an adversarial event, it needs to be immediately reported to the doctor. Implement a system such that voice (microphone) is converted to text and interpreted. If it is detected as an adversarial event, agentic workflow should kick in and using make.com API automation, email gets sent to doctor</t>
+  </si>
+  <si>
+    <t>Healthcare news Agentic workflow</t>
+  </si>
+  <si>
+    <t>Patient history with knowledge graph</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>With limited trianing data, you may not see the desired results and that’s ok. The process you followed, steps and code will be reviewed</t>
+  </si>
+  <si>
+    <t>Problem Statement</t>
+  </si>
+  <si>
+    <t>Overall user flow</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>1. use small whisper or similar for voice recognition</t>
+  </si>
+  <si>
+    <t>2. Use make.com Agent for automation/to create email API service</t>
+  </si>
+  <si>
+    <t>Enhance the patient history use-case you implemented in the previous RAG submission to use graph-rag</t>
+  </si>
+  <si>
+    <t>Implement Agentic graph-rag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a tool that, given a set of 2-3 topics in the prompt, will use agentic workflow (multi agents) and output a summary of the latest news along with citations </t>
+  </si>
+  <si>
+    <t>Example prompt:</t>
+  </si>
+  <si>
+    <t>What is the latest news on parkinson's disease and it's treatments? Any latest drugs available?</t>
+  </si>
+  <si>
+    <t>Use a multi agent workflow</t>
+  </si>
+  <si>
+    <t>Gender, facial expression detection using pre-trained models (GPT4-V or similar)</t>
+  </si>
+  <si>
+    <t>Gender and facial expression prediction</t>
+  </si>
+  <si>
+    <t>Leverage a pre-trained vision GPT to detect patient gender and facial expression (sad, happy, neutral, excited etc.)</t>
+  </si>
+  <si>
+    <t>Bonus:</t>
+  </si>
+  <si>
+    <t>The interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI in streamlit/gradio that will allow user to upload a pic of patient.
+When uploaded, model should print the gender and expression it predicts
+</t>
+  </si>
+  <si>
+    <t>Achieve the above with camera on laptop for real time inferencing</t>
+  </si>
+  <si>
+    <t>(its ok to highlight the approach and possible solutions for achieving this, as making it work may require a paid model</t>
+  </si>
+  <si>
+    <t>Getwell Hospital has very specific triage process and rules. Prompt engineering and RAG approaches have not yielded good outcomes for them. They have decided to explore fine tuning a small to medium language model to obtain better outcomes</t>
+  </si>
+  <si>
+    <t>* This information (3rd floor, room 405) will come from a tool as this is realtime information</t>
+  </si>
+  <si>
+    <t>If the call is not about any adversarial event, no such email should get sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In streamlit/gradio UI, enable microphone/voice capture. 
+User records a message and sends
+tool will transcribe it into text
+It will detect if any adversarial event is mentioned
+It will locate the doctor for that patient (optional using tool/agent) and send an email to the doctor </t>
+  </si>
+  <si>
+    <t>Example prompts:</t>
+  </si>
+  <si>
+    <t>4) Find any additional visits by Mr Joe after a medication was prescribed.</t>
+  </si>
+  <si>
+    <t>5) Show me all diagnoses that eventually lead to a referral to Mr Desai, our heart specialist</t>
+  </si>
+  <si>
+    <t>2) I am Dr Nath. Please show me if there is anyone I know who is connected with nurse Mary. Need a reference about her style or working from someoe I know
+3) Which chain of people (nurses/doctors) did Mr Bob pass through before reaching the specialist?</t>
+  </si>
+  <si>
+    <t>1) Summary of the visits of Mr Robert after he got his x-ray done</t>
   </si>
   <si>
     <r>
@@ -203,238 +468,53 @@
 1. Immediately check vital signs (blood pressure, pulse, respiratory rate).
 2. Obtain ECG to assess cardiac rhythm and look for arrhythmias.
 3. Check blood glucose level in case of hypoglycemia or hyperglycemia.
-4. Prepare emergency response in case of cardiac instability.
-5. Verify with a qualified medical professional.</t>
-    </r>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <r>
-      <t>Synthetic Data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Create a small set of triage-oriented examples.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Model Selection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>gpt2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for demonstration.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Show raw GPT-2 outputs on a sample prompt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fine-Tuning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Demonstrate how to tokenize data, configure the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> API, and train.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Evaluation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Evaluate with appropriate metrics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>System Prompt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provided a  system/role prompt for emergency triage use.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Test Case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Chatbot to demonstrate  generated triage steps for a new scenario.</t>
-    </r>
-  </si>
-  <si>
-    <t>Face recognition and facial expression inferencing</t>
-  </si>
-  <si>
-    <t>Patient facial expressions provide a clue on how the patient is feeling and can be used to prescribe proper medications</t>
-  </si>
-  <si>
-    <t>Leverage a pre-trained vision GPT to detect facial expression (sad, happy, neutral, excited etc.)</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>https://medium.com/@elinamaliarsky/gpt-4-video-kyc-part-i-12025cb455fd</t>
-  </si>
-  <si>
-    <t>https://medium.com/@elinamaliarsky/gpt-4-video-kyc-part-ii-a94df13458ff</t>
-  </si>
-  <si>
-    <t>Adversarial event reporting</t>
-  </si>
-  <si>
-    <t>When a patient calls in with an adversarial event, it needs to be immediately reported to the doctor. Implement a system such that voice (microphone) is converted to text and interpreted. If it is detected as an adversarial event, agentic workflow should kick in and using make.com API automation, email gets sent to doctor</t>
-  </si>
-  <si>
-    <t>Healthcare news Agentic workflow</t>
-  </si>
-  <si>
-    <t>Patient history with knowledge graph</t>
-  </si>
-  <si>
-    <t>Hospital has very specific triage process and rules. Prompt engineering and RAG approaches have not yielded good outcomes. Company has decided to explore fine tuning a small language model to obtain better outcomes</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>With limited trianing data, you may not see the desired results and that’s ok. The process you followed, steps and code will be reviewed</t>
-  </si>
-  <si>
-    <t>Problem Statement</t>
-  </si>
-  <si>
-    <t>Overall user flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In streamlit/gradio UI, enable microphone/voice capture. 
-User records a message and sends
-tool will transcribe it into text
-It will detect if any adversarial event is mentioned
-It will locate the doctor for that patient (optional) and send an email to the doctor </t>
-  </si>
-  <si>
-    <t>Tips</t>
-  </si>
-  <si>
-    <t>1. use small whisper or similar for voice recognition</t>
-  </si>
-  <si>
-    <t>2. Use make.com Agent for automation/to create email API service</t>
-  </si>
-  <si>
-    <t>Enhance the patient history use-case you implemented in the previous RAG submission to use graph-rag</t>
-  </si>
-  <si>
-    <t>Implement Agentic graph-rag</t>
-  </si>
-  <si>
-    <t>Compare the performance between RAG and graph rag implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a tool that, given a set of 2-3 topics in the prompt, will use agentic workflow (multi agents) and output a summary of the latest news along with citations </t>
-  </si>
-  <si>
-    <t>Example prompt:</t>
-  </si>
-  <si>
-    <t>What is the latest news on parkinson's disease and it's treatments? Any latest drugs available?</t>
-  </si>
-  <si>
-    <t>Use a multi agent workflow</t>
+4. Call the anesthetisia doctor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mr Khanolkar at 9892132445* (use tool)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Verify operating room availability </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(use tool)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Transport patient immediately to ER room </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>(on 3rd floor, room 405 - use tool)*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1125,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1329EFC-6E03-46F1-8F84-9DA2C4250106}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1149,13 +1229,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1189,7 +1269,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -1251,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1274,7 +1354,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>18</v>
@@ -1315,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4256FE2A-733A-4640-86F4-01741F759147}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1328,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1338,50 +1418,82 @@
     </row>
     <row r="3" spans="1:1" ht="32">
       <c r="A3" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="32">
       <c r="A4" s="19" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="24" t="s">
-        <v>50</v>
+      <c r="A5" s="19"/>
+    </row>
+    <row r="6" spans="1:1" ht="16">
+      <c r="A6" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="48">
+      <c r="A7" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:1" ht="16">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="32">
+      <c r="A10" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16">
+      <c r="A11" s="19"/>
+    </row>
+    <row r="12" spans="1:1" ht="16">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:1" ht="16">
+      <c r="A16" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{22993399-CA12-4C89-84D3-79E73FABF759}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{6D09D293-FECC-4B6C-A3B9-6774CBBB268F}"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{22993399-CA12-4C89-84D3-79E73FABF759}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{6D09D293-FECC-4B6C-A3B9-6774CBBB268F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BDFE4F-A2D9-46A6-83DB-A01B83B025B5}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1391,7 +1503,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1401,17 +1513,17 @@
     </row>
     <row r="3" spans="1:1" ht="32">
       <c r="A3" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="48">
       <c r="A5" s="19" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16">
@@ -1419,75 +1531,95 @@
     </row>
     <row r="7" spans="1:1" ht="16">
       <c r="A7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="128">
       <c r="A8" s="19" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16">
+      <c r="A9" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="23" t="s">
-        <v>41</v>
+      <c r="A10" s="19"/>
+    </row>
+    <row r="11" spans="1:1" ht="16">
+      <c r="A11" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16">
+      <c r="A12" s="19"/>
+    </row>
+    <row r="13" spans="1:1" ht="16">
+      <c r="A13" s="19"/>
+    </row>
+    <row r="14" spans="1:1" ht="16">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="29">
-      <c r="A20" s="25" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="29">
+      <c r="A24" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E334AC26-D7B8-4D6A-BE19-649DA62CBF47}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1497,42 +1629,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
       <c r="A2" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="64">
       <c r="A3" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16">
-      <c r="A5" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="80">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16">
+      <c r="A7" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="80">
+      <c r="A8" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>63</v>
+      <c r="A10" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8F8D6E-EDB8-4C6B-86AD-CB3E18C1B43E}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1553,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1568,7 +1705,7 @@
     </row>
     <row r="4" spans="1:1" ht="32">
       <c r="A4" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16">
@@ -1578,7 +1715,7 @@
     </row>
     <row r="6" spans="1:1" ht="16">
       <c r="A6" s="19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1586,12 +1723,12 @@
     </row>
     <row r="8" spans="1:1" ht="16">
       <c r="A8" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16">
       <c r="A9" s="21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1601,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC2422D-C02C-4EC9-977B-D9023D7E1EB8}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="121" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1614,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16">
@@ -1622,17 +1759,37 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="43.5">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
